--- a/stage2_excels/RBFNN/kfold.xlsx
+++ b/stage2_excels/RBFNN/kfold.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8838090260864135</v>
+        <v>-3.552677999163241</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4296686297493257</v>
+        <v>-1.015996625248022</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6954142635715346</v>
+        <v>0.7483694509802936</v>
       </c>
     </row>
   </sheetData>
